--- a/biology/Botanique/Iberis_spathulata/Iberis_spathulata.xlsx
+++ b/biology/Botanique/Iberis_spathulata/Iberis_spathulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iberis spathulata
 L'ibéris spatulé Écouter, Iberis spathulata, est une espèce de plante herbacée dicotylédone de la famille des Brassicacées (Crucifères). Elle tire son nom de ses feuilles en spatule, ovales et charnues. Elle est endémique des Pyrénées.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : rouge à rose
